--- a/medicine/Enfance/Le_Roi_magicien/Le_Roi_magicien.xlsx
+++ b/medicine/Enfance/Le_Roi_magicien/Le_Roi_magicien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le Roi magicien (The Magician King) est un roman pour jeunes adultes de l'auteur américain Lev Grossman, publié en 2011[1] par Viking Press. Il continue l'histoire de Quentin Coldwater, en l'entrelaçant avec l'histoire de son béguin pour le lycée, Julia, qui a appris la magie en dehors du cadre scolaire standard et l'a rejoint à Fillory.
-Une adaptation en série télévisée a été diffusée sur Syfy en 2015[2]. Grossman a également travaillé sur deux comics basés sur ses romans[3]
+Le Roi magicien (The Magician King) est un roman pour jeunes adultes de l'auteur américain Lev Grossman, publié en 2011 par Viking Press. Il continue l'histoire de Quentin Coldwater, en l'entrelaçant avec l'histoire de son béguin pour le lycée, Julia, qui a appris la magie en dehors du cadre scolaire standard et l'a rejoint à Fillory.
+Une adaptation en série télévisée a été diffusée sur Syfy en 2015. Grossman a également travaillé sur deux comics basés sur ses romans
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">commençant en même temps que le début et la fin  du tome Les Magiciens (The Magicians) . Dans l'un d'entre eux, à la suite de son entretien infructueux à Brakebills, Julia retourne à Brooklyn. Un alibi mal construit lui révèle les souvenirs de son entretien et le monde de la magie qui ne lui était pas accessible. Après de nombreuses recherches, elle trouve son chemin vers une maison sûre où des sorts de bas niveau sont enseignés. Peu à peu, elle gravit les niveaux, apprenant de plus en plus de magie, jusqu'à ce que les refuges n'aient plus rien à lui apprendre. Elle prend contact avec le Free Trader Beowulf, un groupe de personnes comme elle : des magiciens autodidactes avec d'importants problèmes psychologiques. Elle déménage à Murs , en France, pour travailler avec eux, où ils lui apprennent davantage de magie.
 Julia et les autres à Murs, afin d'atteindre beaucoup plus de pouvoir magique, tentent d'invoquer Notre-Dame Souterraine, une déesse locale. Ils invoquent à la place Reynard le Renard , un dieu filou qui tue la plupart d'entre eux tout en les avertissant que personne n'a invoqué de dieu depuis 2000 ans, que tous les dieux les ont entendus, y compris les anciens, et qu'ils pourraient tout aussi bien être morts lorsque les dieux viens. Il compte tuer les deux derniers, mais Julia se sacrifie pour sauver son ami Asmodée. Reynard procède au viol de Julia, la laissant avec un traumatisme grave et une étincelle supplémentaire de magie divine.
@@ -549,7 +563,9 @@
           <t>Personnages principaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Quentin Makepeace Coldwater - Ancien résident de Brooklyn, Quentin est devenu l'un des rois de Fillory après une série de mésaventures magiques.
 Julia Wicker – Magicienne talentueuse au passé troublé et au psychisme endommagé, Julia règne dans le royaume magique de Fillory comme l'une de ses reines.
@@ -583,7 +599,9 @@
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La critique de The AV Club  donné au roman la note de A, le qualifiant de «Il s'agit clairement du livre central d'une trilogie, mais c'est une œuvre  rare qui jette un pont entre les deux récits tout en restant indépendante.»
 </t>
